--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clauss\Documents\Pierre\Cours\2- Dauphine\2- Modelisation_risques_avances - DiFiQ\2- Atelier\1- R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clauss\Documents\Pierre\Cours\2- Dauphine\2- Modelisation_risques_avances - DiFiQ\2- Atelier\3- GitHub\difiq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE0E4F2-68F5-453B-961A-1C7CCF720D7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AE6688-4AAA-4410-A20E-1814C4136CC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7B72F2F2-48D1-4D92-8679-7E383D0E59A9}"/>
   </bookViews>
@@ -571,7 +571,7 @@
       </c>
       <c r="B2" s="10">
         <f ca="1">TODAY()</f>
-        <v>43884</v>
+        <v>43906</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>7</v>
@@ -60121,81 +60121,262 @@
       </c>
     </row>
     <row r="4311" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4311" s="4"/>
+      <c r="B4311" s="4">
+        <v>43882</v>
+      </c>
+      <c r="C4311" s="2">
+        <v>-1.0937500000002001E-4</v>
+      </c>
+      <c r="D4311" s="2">
+        <v>-6.9236789821188003E-3</v>
+      </c>
+      <c r="E4311" s="2">
+        <v>2.5743989331643E-3</v>
+      </c>
     </row>
     <row r="4312" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4312" s="4"/>
+      <c r="B4312" s="4">
+        <v>43885</v>
+      </c>
+      <c r="C4312" s="2">
+        <v>-3.6790482292333997E-2</v>
+      </c>
+      <c r="D4312" s="2">
+        <v>-1.9063400964622002E-2</v>
+      </c>
+      <c r="E4312" s="2">
+        <v>3.1165376310736E-3</v>
+      </c>
     </row>
     <row r="4313" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4313" s="4"/>
+      <c r="B4313" s="4">
+        <v>43886</v>
+      </c>
+      <c r="C4313" s="2">
+        <v>-1.8305609033290999E-2</v>
+      </c>
+      <c r="D4313" s="2">
+        <v>2.3210778591146002E-3</v>
+      </c>
+      <c r="E4313" s="2">
+        <v>5.4704432545559997E-4</v>
+      </c>
     </row>
     <row r="4314" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4314" s="4"/>
+      <c r="B4314" s="4">
+        <v>43887</v>
+      </c>
+      <c r="C4314" s="2">
+        <v>6.6104411918628005E-4</v>
+      </c>
+      <c r="D4314" s="2">
+        <v>-1.8361194847904001E-2</v>
+      </c>
+      <c r="E4314" s="2">
+        <v>-2.0800090331734E-5</v>
+      </c>
     </row>
     <row r="4315" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4315" s="4"/>
+      <c r="B4315" s="4">
+        <v>43888</v>
+      </c>
+      <c r="C4315" s="2">
+        <v>-2.1205498455829998E-2</v>
+      </c>
+      <c r="D4315" s="2">
+        <v>-7.1119486320492002E-3</v>
+      </c>
+      <c r="E4315" s="2">
+        <v>-3.7114076011054999E-3</v>
+      </c>
     </row>
     <row r="4316" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4316" s="4"/>
+      <c r="B4316" s="4">
+        <v>43889</v>
+      </c>
+      <c r="C4316" s="2">
+        <v>-3.4173420547922002E-2</v>
+      </c>
+      <c r="D4316" s="2">
+        <v>-2.9080352310189999E-2</v>
+      </c>
+      <c r="E4316" s="2">
+        <v>4.6677264742112003E-3</v>
+      </c>
     </row>
     <row r="4317" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4317" s="4"/>
+      <c r="B4317" s="4">
+        <v>43890</v>
+      </c>
+      <c r="E4317" s="2">
+        <v>1.9890395017310001E-4</v>
+      </c>
     </row>
     <row r="4318" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4318" s="4"/>
+      <c r="B4318" s="4">
+        <v>43892</v>
+      </c>
+      <c r="C4318" s="2">
+        <v>1.7173005363289001E-2</v>
+      </c>
+      <c r="D4318" s="2">
+        <v>1.0613651501549E-2</v>
+      </c>
+      <c r="E4318" s="2">
+        <v>5.0161317610186002E-4</v>
+      </c>
     </row>
     <row r="4319" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4319" s="4"/>
+      <c r="B4319" s="4">
+        <v>43893</v>
+      </c>
+      <c r="C4319" s="2">
+        <v>1.5726619034532999E-2</v>
+      </c>
+      <c r="D4319" s="2">
+        <v>4.4630704205171996E-3</v>
+      </c>
+      <c r="E4319" s="2">
+        <v>4.6665203125648997E-3</v>
+      </c>
     </row>
     <row r="4320" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4320" s="4"/>
-    </row>
-    <row r="4321" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4321" s="4"/>
-    </row>
-    <row r="4322" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4322" s="4"/>
-    </row>
-    <row r="4323" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4323" s="4"/>
-    </row>
-    <row r="4324" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4324" s="4"/>
-    </row>
-    <row r="4325" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4325" s="4"/>
-    </row>
-    <row r="4326" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4326" s="4"/>
-    </row>
-    <row r="4327" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4327" s="4"/>
-    </row>
-    <row r="4328" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4320" s="4">
+        <v>43894</v>
+      </c>
+      <c r="C4320" s="2">
+        <v>1.0089111087313E-2</v>
+      </c>
+      <c r="D4320" s="2">
+        <v>-3.6373232153952999E-4</v>
+      </c>
+      <c r="E4320" s="2">
+        <v>2.4302018278189001E-3</v>
+      </c>
+    </row>
+    <row r="4321" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4321" s="4">
+        <v>43895</v>
+      </c>
+      <c r="C4321" s="2">
+        <v>-1.4848584613496E-2</v>
+      </c>
+      <c r="D4321" s="2">
+        <v>-1.5838815085399999E-3</v>
+      </c>
+      <c r="E4321" s="2">
+        <v>2.609889300632E-3</v>
+      </c>
+    </row>
+    <row r="4322" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4322" s="4">
+        <v>43896</v>
+      </c>
+      <c r="C4322" s="2">
+        <v>-3.0665881233431998E-2</v>
+      </c>
+      <c r="D4322" s="2">
+        <v>-2.6532799771330998E-2</v>
+      </c>
+      <c r="E4322" s="2">
+        <v>8.2705574032506998E-3</v>
+      </c>
+    </row>
+    <row r="4323" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4323" s="4">
+        <v>43899</v>
+      </c>
+      <c r="C4323" s="2">
+        <v>-7.1406032699522004E-2</v>
+      </c>
+      <c r="D4323" s="2">
+        <v>-6.4906369515587994E-2</v>
+      </c>
+      <c r="E4323" s="2">
+        <v>-1.4659987936324999E-2</v>
+      </c>
+    </row>
+    <row r="4324" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4324" s="4">
+        <v>43900</v>
+      </c>
+      <c r="C4324" s="2">
+        <v>-2.1829417169035002E-2</v>
+      </c>
+      <c r="D4324" s="2">
+        <v>1.804765082231E-2</v>
+      </c>
+      <c r="E4324" s="2">
+        <v>-1.7090149875202999E-2</v>
+      </c>
+    </row>
+    <row r="4325" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4325" s="4">
+        <v>43901</v>
+      </c>
+      <c r="C4325" s="2">
+        <v>-1.3297307729422E-2</v>
+      </c>
+      <c r="D4325" s="2">
+        <v>-1.5352703494648E-2</v>
+      </c>
+      <c r="E4325" s="2">
+        <v>-1.0145350498994E-2</v>
+      </c>
+    </row>
+    <row r="4326" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4326" s="4">
+        <v>43902</v>
+      </c>
+      <c r="C4326" s="2">
+        <v>-0.13679928020967999</v>
+      </c>
+      <c r="D4326" s="2">
+        <v>-7.7999577110726998E-2</v>
+      </c>
+      <c r="E4326" s="2">
+        <v>-2.1559467107603002E-2</v>
+      </c>
+    </row>
+    <row r="4327" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4327" s="4">
+        <v>43903</v>
+      </c>
+      <c r="C4327" s="2">
+        <v>1.4501948699356001E-2</v>
+      </c>
+      <c r="D4327" s="2">
+        <v>2.8471201787093999E-2</v>
+      </c>
+      <c r="E4327" s="2">
+        <v>-9.7637805059893005E-3</v>
+      </c>
+    </row>
+    <row r="4328" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4328" s="4"/>
     </row>
-    <row r="4329" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4329" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4329" s="4"/>
     </row>
-    <row r="4330" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4330" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4330" s="4"/>
     </row>
-    <row r="4331" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4331" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4331" s="4"/>
     </row>
-    <row r="4332" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4332" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4332" s="4"/>
     </row>
-    <row r="4333" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4333" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4333" s="4"/>
     </row>
-    <row r="4334" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4334" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4334" s="4"/>
     </row>
-    <row r="4335" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4335" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4335" s="4"/>
     </row>
-    <row r="4336" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4336" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4336" s="4"/>
     </row>
     <row r="4337" spans="2:2" x14ac:dyDescent="0.3">
